--- a/data/predicciones_grupo_16.xlsx
+++ b/data/predicciones_grupo_16.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4217,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292">

--- a/data/predicciones_grupo_16.xlsx
+++ b/data/predicciones_grupo_16.xlsx
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -6466,7 +6466,7 @@
         <v>3</v>
       </c>
       <c r="C464" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465">
